--- a/Lernplan.xlsx
+++ b/Lernplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oli98\Desktop\UniGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964DB072-8E9F-46E4-9397-5D2E54A23C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1C8F68-C74E-456E-8C7A-59E2E9257370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0779F005-10B2-4ED2-A2EF-EDF9254D246F}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -699,9 +699,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="173">
     <dxf>
@@ -1942,7 +1943,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2240,11 +2241,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892132C0-7700-4AB9-B9AC-50DEC5B9858F}">
   <dimension ref="A1:AC317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
@@ -3655,10 +3656,10 @@
         <v>78</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="15" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3676,10 +3677,10 @@
         <v>79</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N39" t="s">
@@ -3745,10 +3746,10 @@
         <v>80</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="15" t="s">
         <v>148</v>
       </c>
       <c r="O40" t="s">
@@ -3811,10 +3812,10 @@
         <v>81</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="15" t="s">
         <v>150</v>
       </c>
       <c r="O41" t="s">
@@ -3877,10 +3878,10 @@
         <v>82</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="15" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3891,17 +3892,17 @@
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3912,7 +3913,11 @@
       <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="4"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -3921,17 +3926,17 @@
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="15" t="s">
         <v>146</v>
       </c>
       <c r="N45" s="10" t="s">
@@ -3946,15 +3951,15 @@
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="15" t="s">
         <v>145</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="9"/>
       <c r="N46" s="1" t="s">
         <v>35</v>
@@ -4009,16 +4014,17 @@
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="15" t="s">
         <v>153</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="15" t="s">
         <v>154</v>
       </c>
+      <c r="H47" s="1"/>
       <c r="N47" t="s">
         <v>36</v>
       </c>
@@ -4075,15 +4081,15 @@
       <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="15" t="s">
         <v>155</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="9"/>
       <c r="O48" t="s">
         <v>40</v>
@@ -4138,16 +4144,17 @@
       <c r="B49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="15" t="s">
         <v>156</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="15" t="s">
         <v>157</v>
       </c>
+      <c r="H49" s="1"/>
       <c r="O49" t="s">
         <v>41</v>
       </c>
@@ -4201,10 +4208,10 @@
       <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="15" t="s">
         <v>158</v>
       </c>
       <c r="F50" s="4"/>
